--- a/3. G_Documents/2. Products_Firmware/VACC_TR1-RFID/Hardware_VACC-TR1/1.Hardware/Release_V3.01_240812/RFID_BOM_V3.01_240812/RFID_GIA_BOM_240713 V3.01.xlsx
+++ b/3. G_Documents/2. Products_Firmware/VACC_TR1-RFID/Hardware_VACC-TR1/1.Hardware/Release_V3.01_240812/RFID_BOM_V3.01_240812/RFID_GIA_BOM_240713 V3.01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\VNET_HW\6.RFID\1.Hardware\Release_V3.01_240812\RFID_BOM_V3.01_240812\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\3. G_Documents\2. Products_Firmware\VACC_TR1-RFID\Hardware_VACC-TR1\1.Hardware\Release_V3.01_240812\RFID_BOM_V3.01_240812\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1484E1F-CDA4-4A5F-9843-676C4451E50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF6E8F-077B-400D-8E03-715AA423BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="240813" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'240813'!$G$1:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'240813'!$A$1:$J$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1389,6 +1389,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1423,21 +1438,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3513,8 +3513,8 @@
   <dimension ref="A1:N594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,13 +3525,15 @@
     <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="80.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="43.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="26.42578125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="22.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3576,7 +3578,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="46" t="s">
         <v>280</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3610,12 +3612,16 @@
         <f>K2*I2</f>
         <v>52</v>
       </c>
+      <c r="M2" s="3">
+        <f>I2*1000</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="6" t="s">
         <v>170</v>
       </c>
@@ -3647,12 +3653,16 @@
         <f t="shared" ref="L3:L41" si="0">K3*I3</f>
         <v>104</v>
       </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M34" si="1">I3*1000</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
@@ -3684,12 +3694,16 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="M4" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="41"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="6" t="s">
         <v>168</v>
       </c>
@@ -3721,12 +3735,16 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
     </row>
     <row r="6" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="6" t="s">
         <v>169</v>
       </c>
@@ -3758,12 +3776,16 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="6" t="s">
         <v>167</v>
       </c>
@@ -3795,12 +3817,16 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="6" t="s">
         <v>166</v>
       </c>
@@ -3832,13 +3858,17 @@
         <f t="shared" si="0"/>
         <v>1188</v>
       </c>
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
       <c r="N8"/>
     </row>
     <row r="9" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
@@ -3870,12 +3900,16 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="10" t="s">
         <v>176</v>
       </c>
@@ -3907,12 +3941,16 @@
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3944,12 +3982,16 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="6" t="s">
         <v>178</v>
       </c>
@@ -3981,12 +4023,16 @@
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
@@ -4018,12 +4064,16 @@
         <f t="shared" si="0"/>
         <v>674</v>
       </c>
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
@@ -4055,12 +4105,16 @@
         <f t="shared" si="0"/>
         <v>2640</v>
       </c>
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="41"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
         <v>37</v>
@@ -4086,12 +4140,16 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="41"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="6" t="s">
         <v>171</v>
       </c>
@@ -4123,12 +4181,16 @@
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="41"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
@@ -4160,12 +4222,16 @@
         <f t="shared" si="0"/>
         <v>796</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="41"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
@@ -4197,12 +4263,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="41"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="6" t="s">
         <v>175</v>
       </c>
@@ -4234,12 +4304,16 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="6" t="s">
         <v>174</v>
       </c>
@@ -4271,12 +4345,16 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="41"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4308,12 +4386,16 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="8" t="s">
         <v>173</v>
       </c>
@@ -4345,12 +4427,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="6" t="s">
         <v>172</v>
       </c>
@@ -4382,12 +4468,16 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="9" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="8" t="s">
         <v>173</v>
       </c>
@@ -4419,12 +4509,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="41"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="6" t="s">
         <v>17</v>
       </c>
@@ -4456,12 +4550,16 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="6" t="s">
         <v>20</v>
       </c>
@@ -4493,12 +4591,16 @@
         <f t="shared" si="0"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="6" t="s">
         <v>21</v>
       </c>
@@ -4530,12 +4632,16 @@
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="6" t="s">
         <v>22</v>
       </c>
@@ -4567,12 +4673,16 @@
         <f t="shared" si="0"/>
         <v>10978</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="41"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
@@ -4604,12 +4714,16 @@
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="41"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
@@ -4641,12 +4755,16 @@
         <f t="shared" si="0"/>
         <v>2350</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="41"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="6" t="s">
         <v>13</v>
       </c>
@@ -4678,12 +4796,16 @@
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
@@ -4715,12 +4837,16 @@
         <f t="shared" si="0"/>
         <v>3060</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="41"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="10" t="s">
         <v>191</v>
       </c>
@@ -4735,19 +4861,23 @@
         <v>1</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="53">
+      <c r="K33" s="41">
         <v>7400</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="0"/>
         <v>7400</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="41"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="10" t="s">
         <v>264</v>
       </c>
@@ -4767,12 +4897,16 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>34</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="47" t="s">
         <v>281</v>
       </c>
       <c r="C35" s="28" t="s">
@@ -4805,11 +4939,11 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>35</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="28" t="s">
         <v>187</v>
       </c>
@@ -4832,11 +4966,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>36</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="28" t="s">
         <v>189</v>
       </c>
@@ -4854,11 +4988,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="3" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="27">
         <v>37</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="28" t="s">
         <v>190</v>
       </c>
@@ -4878,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
         <v>38</v>
       </c>
@@ -4905,21 +5039,21 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
+    <row r="40" spans="1:13" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56">
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44">
         <v>1</v>
       </c>
-      <c r="J40" s="56"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="3">
         <v>6800</v>
       </c>
@@ -4928,21 +5062,21 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56">
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44">
         <v>1</v>
       </c>
-      <c r="J41" s="56"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="3">
         <v>6000</v>
       </c>
@@ -4951,7 +5085,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="K42" s="40" t="s">
         <v>285</v>
@@ -4961,7 +5095,7 @@
         <v>101466</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="K43" s="40" t="s">
         <v>286</v>
@@ -4971,19 +5105,19 @@
         <v>106539.3</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6672,11 +6806,11 @@
       <c r="A1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -6933,18 +7067,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -7019,47 +7153,47 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
     </row>
     <row r="21" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="53" t="s">
         <v>254</v>
       </c>
       <c r="B22" s="21" t="s">
@@ -7067,19 +7201,19 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="21" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="21" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="21" t="s">
         <v>261</v>
       </c>
@@ -7139,10 +7273,10 @@
       <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="57" t="s">
         <v>273</v>
       </c>
       <c r="D2" s="23"/>
@@ -7151,78 +7285,78 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="23"/>
       <c r="E3" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="23"/>
       <c r="E5" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="23"/>
     </row>
   </sheetData>
